--- a/MedicalLink/Templates/BC_49_SuDungThuocToanVien.xlsx
+++ b/MedicalLink/Templates/BC_49_SuDungThuocToanVien.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$9</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Thành tiền tủ trực</t>
   </si>
   <si>
-    <t>SL tồn</t>
-  </si>
-  <si>
-    <t>Thành tiền tồn</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
   </si>
   <si>
@@ -105,12 +99,6 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TUTRUC_THANHTIEN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].TON_SL</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].TON_THANHTIEN</t>
   </si>
 </sst>
 </file>
@@ -264,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -281,9 +269,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -312,12 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -349,8 +328,8 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -647,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -656,50 +635,43 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="20"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="14"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="13"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -724,99 +696,82 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="7">
+        <f>SUM(F5:F5)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="7">
+        <f>SUM(H5:H5)/3</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="7">
-        <f>SUM(F5:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="7">
-        <f>SUM(H5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="7">
-        <f>SUM(J5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="16"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:J5">
+  <conditionalFormatting sqref="A5:H5">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K5=1</formula>
+      <formula>$I5=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K5=2</formula>
+      <formula>$I5=2</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
